--- a/sound_for_prismatic_adaptation/stimuli.xlsx
+++ b/sound_for_prismatic_adaptation/stimuli.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\remi.DESKTOP-UI81QOM\Desktop\EXP1_PILOTE\SOUND\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\remi.DESKTOP-UI81QOM\Desktop\_EXPE_REMI_LAFITTE_300421\eprime_vv_lm_290421\sound_for_prismatic_adaptation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F96A0A-6BB6-47EB-9A83-D5B5B4525C8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EE9B93-4E24-46CF-89E9-66BD7EC13CD1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="4">
   <si>
     <t>word_stimuli</t>
   </si>
@@ -354,10 +354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -378,15 +378,15 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -394,15 +394,15 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -415,7 +415,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7">
         <v>0.7</v>
@@ -426,15 +426,15 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -442,15 +442,335 @@
         <v>1</v>
       </c>
       <c r="B10">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>0.9</v>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B32">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
